--- a/kas_assignment1/Data.xlsx
+++ b/kas_assignment1/Data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a34afd9ed01b7bb/USP/University of Groningen/Agent and Knowledge Systems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daniel/Documents/GitHub/KnowledgeAndAgentSystems/kas_assignment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{EEC97E51-0093-2446-9A07-AC4CD2963988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43EA0435-FF7A-D446-88F8-5AA9F773A321}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAFD219-2ED5-2D49-AC60-D3355013CA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{5E03BC64-6598-7145-A0E5-32D604FD858E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{5E03BC64-6598-7145-A0E5-32D604FD858E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t xml:space="preserve">Carrying Capacity </t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Number of Runs</t>
+  </si>
+  <si>
+    <t>Carrying Capacity (Socializing)</t>
+  </si>
+  <si>
+    <t>Carrying Capacity (Not Socializing)</t>
   </si>
 </sst>
 </file>
@@ -133,10 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7265B4-2C01-5F42-AD33-9FAA6A7D1229}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,9 +491,12 @@
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
@@ -501,8 +510,17 @@
         <f>AVERAGE(C3:C22)</f>
         <v>229.15</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -516,8 +534,17 @@
         <f>_xlfn.STDEV.S(C3:C22)</f>
         <v>9.5821929146011033</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>483</v>
+      </c>
+      <c r="J3" s="3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -530,164 +557,273 @@
       <c r="F4" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>460</v>
+      </c>
+      <c r="J4" s="3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>465</v>
+      </c>
+      <c r="J5" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="3">
+        <v>467</v>
+      </c>
+      <c r="J6" s="3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>485</v>
+      </c>
+      <c r="J7" s="3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>230</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <v>6</v>
+      </c>
+      <c r="I8" s="3">
+        <v>449</v>
+      </c>
+      <c r="J8" s="3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>231</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3">
+        <v>477</v>
+      </c>
+      <c r="J9" s="3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="3">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
+        <v>449</v>
+      </c>
+      <c r="J10" s="3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>219</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>468</v>
+      </c>
+      <c r="J11" s="3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3">
+        <v>487</v>
+      </c>
+      <c r="J12" s="3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>214</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <f>AVERAGE(I3:I12)</f>
+        <v>469</v>
+      </c>
+      <c r="J13" s="5">
+        <f>AVERAGE(J3:J12)</f>
+        <v>444.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>227</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>229</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>